--- a/data/표준내역 조회.xlsx
+++ b/data/표준내역 조회.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCode\TA Demo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PCode\ENC Demo\V2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F5BEA934-AD33-4500-BBFA-4354C0ED1737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{47C58AD0-88CC-44A0-A9D8-FB504316EAD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{063797F9-F887-49C8-9CDF-A4DF6A5EB11F}"/>
+    <workbookView xWindow="30045" yWindow="14010" windowWidth="24210" windowHeight="15345" xr2:uid="{912C343B-E5AD-45DD-A5E2-877D8E13EDDF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1348" uniqueCount="204">
   <si>
     <t>토목공사</t>
   </si>
@@ -53,9 +53,6 @@
     <t>토사, 장비유도원 포함</t>
   </si>
   <si>
-    <t>Y</t>
-  </si>
-  <si>
     <t>M3</t>
   </si>
   <si>
@@ -122,9 +119,6 @@
     <t>연암, 유압식 할암공법, 장비유도원 포함</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>보통암, 유압식 할암공법, 장비유도원 포함</t>
   </si>
   <si>
@@ -141,33 +135,518 @@
   </si>
   <si>
     <t>토사</t>
+  </si>
+  <si>
+    <t>토사(불량토)</t>
+  </si>
+  <si>
+    <t>풍화토</t>
+  </si>
+  <si>
+    <t>풍화암</t>
+  </si>
+  <si>
+    <t>연암</t>
+  </si>
+  <si>
+    <t>보통암</t>
+  </si>
+  <si>
+    <t>경암</t>
+  </si>
+  <si>
+    <t>사토장 정리비</t>
+  </si>
+  <si>
+    <t>바닥정리</t>
+  </si>
+  <si>
+    <t>토사 및 암 바탕면</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>크람쉘상차</t>
+  </si>
+  <si>
+    <t>법면보호시트</t>
+  </si>
+  <si>
+    <t>가배수로(PE U형플륨관)</t>
+  </si>
+  <si>
+    <t>GATE구간 스틸그레이팅 포함</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>가배수로</t>
+  </si>
+  <si>
+    <t>U형플륨관</t>
+  </si>
+  <si>
+    <t>신규(241121)-현장데이터에 있는 내역 추가(참고:241119 회의록)</t>
+  </si>
+  <si>
+    <t>가설 집수정</t>
+  </si>
+  <si>
+    <t>개소</t>
+  </si>
+  <si>
+    <t>가설 침사조</t>
+  </si>
+  <si>
+    <t>C.I.P 공사</t>
+  </si>
+  <si>
+    <t>C.I.P천공, T-4</t>
+  </si>
+  <si>
+    <t>Φ450, 토사, 케이싱 포함</t>
+  </si>
+  <si>
+    <t>공종변경(230309)/내역변경(241128)-장비명 추가(참고:241128 회의록)</t>
+  </si>
+  <si>
+    <t>Φ450, 풍화토</t>
+  </si>
+  <si>
+    <t>Φ450, 풍화암</t>
+  </si>
+  <si>
+    <t>공종변경(230309)/공종변경(241128)-장비명 추가(참고:241128 회의록)</t>
+  </si>
+  <si>
+    <t>Φ450, 연암</t>
+  </si>
+  <si>
+    <t>Φ450, 보통암</t>
+  </si>
+  <si>
+    <t>신규(241128)-표준단가에 있는 내역 추가(참고:241128 회의록)</t>
+  </si>
+  <si>
+    <t>Φ450, 경암</t>
+  </si>
+  <si>
+    <t>C.I.P천공, 개량형T-4</t>
+  </si>
+  <si>
+    <t>C.I.P천공, 토네이도</t>
+  </si>
+  <si>
+    <t>C.I.P천공, 트리콘</t>
+  </si>
+  <si>
+    <t>Φ500, 토사, 케이싱 포함</t>
+  </si>
+  <si>
+    <t>Φ500, 풍화토</t>
+  </si>
+  <si>
+    <t>Φ500, 풍화암</t>
+  </si>
+  <si>
+    <t>Φ500, 연암</t>
+  </si>
+  <si>
+    <t>Φ500, 보통암</t>
+  </si>
+  <si>
+    <t>Φ500, 경암</t>
+  </si>
+  <si>
+    <t>Φ550, 토사, 케이싱 포함</t>
+  </si>
+  <si>
+    <t>Φ550, 보통암</t>
+  </si>
+  <si>
+    <t>Φ550, 경암</t>
+  </si>
+  <si>
+    <t>Φ600, 토사, 케이싱 포함</t>
+  </si>
+  <si>
+    <t>Φ600, 풍화토</t>
+  </si>
+  <si>
+    <t>Φ600, 풍화암</t>
+  </si>
+  <si>
+    <t>Φ600, 연암</t>
+  </si>
+  <si>
+    <t>Φ600, 보통암</t>
+  </si>
+  <si>
+    <t>Φ600, 경암</t>
+  </si>
+  <si>
+    <t>H-PILE 근입</t>
+  </si>
+  <si>
+    <t>규격변경(220616)</t>
+  </si>
+  <si>
+    <t>H-PILE 연결</t>
+  </si>
+  <si>
+    <t>규격변경(1908)</t>
+  </si>
+  <si>
+    <t>굴착토처리</t>
+  </si>
+  <si>
+    <t>철근망 조립/근입</t>
+  </si>
+  <si>
+    <t>TON</t>
+  </si>
+  <si>
+    <t>레미콘 타설</t>
+  </si>
+  <si>
+    <t>CAP BEAM 설치</t>
+  </si>
+  <si>
+    <t>토공 및 철골 해체/반출 포함</t>
+  </si>
+  <si>
+    <t>CIP 벽면정리</t>
+  </si>
+  <si>
+    <t>H-PILE(사장) - 신재 (설계도면, 시방서 표기시)</t>
+  </si>
+  <si>
+    <t>공종, 사양변경(220829)</t>
+  </si>
+  <si>
+    <t>H-PILE(사장) - 고재 (단면결손 無 및 시방기준 적합)</t>
+  </si>
+  <si>
+    <t>고철처리</t>
+  </si>
+  <si>
+    <t>RF-BEAM 제작 (양면, 공장용접, 운반비 포함)</t>
+  </si>
+  <si>
+    <t>B200×T10×양면</t>
+  </si>
+  <si>
+    <t>B200×T12×양면</t>
+  </si>
+  <si>
+    <t>B200×T14×양면</t>
+  </si>
+  <si>
+    <t>B200×T16×양면</t>
+  </si>
+  <si>
+    <t>B200×T18×양면</t>
+  </si>
+  <si>
+    <t>B200×T20×양면</t>
+  </si>
+  <si>
+    <t>B200×T22×양면</t>
+  </si>
+  <si>
+    <t>B200×T25×양면</t>
+  </si>
+  <si>
+    <t>레미콘</t>
+  </si>
+  <si>
+    <t>25-21-150</t>
+  </si>
+  <si>
+    <t>25-21-080</t>
+  </si>
+  <si>
+    <t>25-21-120</t>
+  </si>
+  <si>
+    <t>신규(241204)-현장데이터에 있는 규격 추가</t>
+  </si>
+  <si>
+    <t>25-24-120</t>
+  </si>
+  <si>
+    <t>25-24-150</t>
+  </si>
+  <si>
+    <t>25-27-150</t>
+  </si>
+  <si>
+    <t>25-30-120</t>
+  </si>
+  <si>
+    <t>25-45-600</t>
+  </si>
+  <si>
+    <t>25-40-600</t>
+  </si>
+  <si>
+    <t>25-49-600</t>
+  </si>
+  <si>
+    <t>25-40-120</t>
+  </si>
+  <si>
+    <t>13-21-120</t>
+  </si>
+  <si>
+    <t>철근</t>
+  </si>
+  <si>
+    <t>D10[SD300]</t>
+  </si>
+  <si>
+    <t>D13[SD300]</t>
+  </si>
+  <si>
+    <t>규격변경(200417)</t>
+  </si>
+  <si>
+    <t>D19[SD300]</t>
+  </si>
+  <si>
+    <t>HD22[SD400]</t>
+  </si>
+  <si>
+    <t>HD25[SD400]</t>
+  </si>
+  <si>
+    <t>HD29[SD400]</t>
+  </si>
+  <si>
+    <t>S-PILE 근입</t>
+  </si>
+  <si>
+    <t>SP-350*300*6*20+HD35*3EA</t>
+  </si>
+  <si>
+    <t>S-PILE 연결</t>
+  </si>
+  <si>
+    <t>15M 초과분마다 1개소</t>
+  </si>
+  <si>
+    <t>S-PILE(사장)</t>
+  </si>
+  <si>
+    <t>SP-350*300*6*20+HD32*3EA</t>
+  </si>
+  <si>
+    <t>S-PILE(이음재)</t>
+  </si>
+  <si>
+    <t>가이드빔 설치/해체</t>
+  </si>
+  <si>
+    <t>토공 및 철골 설치/해체/반출/손료 포함</t>
+  </si>
+  <si>
+    <t>종방향 이음부 연결</t>
+  </si>
+  <si>
+    <t>토류판 설치</t>
+  </si>
+  <si>
+    <t>T=60MM, 토류판자재 포함</t>
+  </si>
+  <si>
+    <t>T=70MM, 토류판자재 포함</t>
+  </si>
+  <si>
+    <t>T=80MM, 토류판자재 포함</t>
+  </si>
+  <si>
+    <t>T=90MM, 토류판자재 포함</t>
+  </si>
+  <si>
+    <t>T=100MM, 토류판자재 포함</t>
+  </si>
+  <si>
+    <t>T=110MM, 토류판자재 포함</t>
+  </si>
+  <si>
+    <t>T=120MM, 토류판자재 포함</t>
+  </si>
+  <si>
+    <t>T=150MM, 토류판자재 포함</t>
+  </si>
+  <si>
+    <t>SHOTCRET 타설</t>
+  </si>
+  <si>
+    <t>T80</t>
+  </si>
+  <si>
+    <t>T100</t>
+  </si>
+  <si>
+    <t>T120</t>
+  </si>
+  <si>
+    <t>T150</t>
+  </si>
+  <si>
+    <t>T200</t>
+  </si>
+  <si>
+    <t>T250</t>
+  </si>
+  <si>
+    <t>SHOTCRET 몰탈</t>
+  </si>
+  <si>
+    <t>혼화재 포함</t>
+  </si>
+  <si>
+    <t>WIRE MESH 설치</t>
+  </si>
+  <si>
+    <t>자재 포함,면고르기 포함</t>
+  </si>
+  <si>
+    <t>ACT-PILE 근입</t>
+  </si>
+  <si>
+    <t>AP-336*250*6*15, 94.19kg/m</t>
+  </si>
+  <si>
+    <t>ACT-PILE 연결</t>
+  </si>
+  <si>
+    <t>10M 초과분마다 1개소</t>
+  </si>
+  <si>
+    <t>S.C.W 공사</t>
+  </si>
+  <si>
+    <t>천공 및 벽체조성</t>
+  </si>
+  <si>
+    <t>Φ500, 토사, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>Φ500, 풍화토, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>Φ500, 풍화암, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>Φ500, 연암, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>Φ500, 보통암, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>Φ500, 경암, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>Φ550, 토사, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>Φ550, 풍화토, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>Φ550, 풍화암, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>Φ550, 연암, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>Φ550, 보통암, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>Φ550, 경암, 그라우팅 포함</t>
+  </si>
+  <si>
+    <t>H-PILE 인발</t>
+  </si>
+  <si>
+    <t>신규(1908)</t>
+  </si>
+  <si>
+    <t>슬라임처리</t>
+  </si>
+  <si>
+    <t>SCW 벽면정리</t>
+  </si>
+  <si>
+    <t>H-PILE(손료) - 신재 (설계도면, 시방서 표기시)</t>
+  </si>
+  <si>
+    <t>H-PILE(손료) - 고재 (단면결손 無 및 시방기준 적합)</t>
+  </si>
+  <si>
+    <t>25-18-120</t>
+  </si>
+  <si>
+    <t>시멘트</t>
+  </si>
+  <si>
+    <t>BULK</t>
+  </si>
+  <si>
+    <t>40KG</t>
+  </si>
+  <si>
+    <t>포</t>
+  </si>
+  <si>
+    <t>지하연속벽 공사</t>
+  </si>
+  <si>
+    <t>안내벽 설치/철거</t>
+  </si>
+  <si>
+    <t>토공 및 RC 설치/해체/반출 포함</t>
+  </si>
+  <si>
+    <t>H=1000, 토공 및 RC 설치/해체/반출 포함</t>
+  </si>
+  <si>
+    <t>H=1200, 토공 및 RC 설치/해체/반출 포함</t>
+  </si>
+  <si>
+    <t>연속벽 굴착(T=1.0m)</t>
+  </si>
+  <si>
+    <t>매립층</t>
+  </si>
+  <si>
+    <t>공종변경(241128)-표준단가에 있는 T값 추가(참고:241128 회의록)</t>
   </si>
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>공사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대공종</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>중공종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대공종</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공사</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>내역</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>규격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>표준단가 대상 여부</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -559,50 +1038,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A00A8D83-F51E-472D-BA29-22F6AF74B59B}">
-  <dimension ref="A1:I25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C932429-83F8-4CFC-8E9C-2D8FC2049027}">
+  <dimension ref="A1:H206"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="65.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>197</v>
       </c>
       <c r="C1" t="s">
-        <v>37</v>
+        <v>198</v>
       </c>
       <c r="D1" t="s">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="E1" t="s">
-        <v>39</v>
+        <v>200</v>
       </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>201</v>
       </c>
       <c r="G1" t="s">
-        <v>41</v>
+        <v>202</v>
       </c>
       <c r="H1" t="s">
-        <v>42</v>
-      </c>
-      <c r="I1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -627,11 +1101,8 @@
       <c r="H2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -648,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G3" t="s">
         <v>5</v>
@@ -656,11 +1127,8 @@
       <c r="H3" t="s">
         <v>6</v>
       </c>
-      <c r="I3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -677,7 +1145,7 @@
         <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G4" t="s">
         <v>5</v>
@@ -685,11 +1153,8 @@
       <c r="H4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -706,7 +1171,7 @@
         <v>3</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G5" t="s">
         <v>5</v>
@@ -714,11 +1179,8 @@
       <c r="H5" t="s">
         <v>6</v>
       </c>
-      <c r="I5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -735,19 +1197,16 @@
         <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
       <c r="H6" t="s">
-        <v>6</v>
-      </c>
-      <c r="I6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -764,7 +1223,7 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G7" t="s">
         <v>5</v>
@@ -772,11 +1231,8 @@
       <c r="H7" t="s">
         <v>6</v>
       </c>
-      <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -793,19 +1249,16 @@
         <v>3</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
         <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>6</v>
-      </c>
-      <c r="I8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -822,7 +1275,7 @@
         <v>3</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
         <v>5</v>
@@ -830,11 +1283,8 @@
       <c r="H9" t="s">
         <v>6</v>
       </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -851,19 +1301,16 @@
         <v>3</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G10" t="s">
         <v>5</v>
       </c>
       <c r="H10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -880,7 +1327,7 @@
         <v>3</v>
       </c>
       <c r="F11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
         <v>5</v>
@@ -888,11 +1335,8 @@
       <c r="H11" t="s">
         <v>6</v>
       </c>
-      <c r="I11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -909,7 +1353,7 @@
         <v>3</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
         <v>5</v>
@@ -917,11 +1361,8 @@
       <c r="H12" t="s">
         <v>6</v>
       </c>
-      <c r="I12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -938,7 +1379,7 @@
         <v>3</v>
       </c>
       <c r="F13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
         <v>5</v>
@@ -946,11 +1387,8 @@
       <c r="H13" t="s">
         <v>6</v>
       </c>
-      <c r="I13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -967,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
         <v>5</v>
@@ -975,11 +1413,8 @@
       <c r="H14" t="s">
         <v>6</v>
       </c>
-      <c r="I14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -996,7 +1431,7 @@
         <v>3</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G15" t="s">
         <v>5</v>
@@ -1004,11 +1439,8 @@
       <c r="H15" t="s">
         <v>6</v>
       </c>
-      <c r="I15" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1025,7 +1457,7 @@
         <v>3</v>
       </c>
       <c r="F16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G16" t="s">
         <v>5</v>
@@ -1033,11 +1465,8 @@
       <c r="H16" t="s">
         <v>6</v>
       </c>
-      <c r="I16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1054,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G17" t="s">
         <v>5</v>
@@ -1062,11 +1491,8 @@
       <c r="H17" t="s">
         <v>6</v>
       </c>
-      <c r="I17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1083,7 +1509,7 @@
         <v>3</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G18" t="s">
         <v>5</v>
@@ -1091,11 +1517,8 @@
       <c r="H18" t="s">
         <v>6</v>
       </c>
-      <c r="I18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1112,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="F19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G19" t="s">
         <v>5</v>
@@ -1120,11 +1543,8 @@
       <c r="H19" t="s">
         <v>6</v>
       </c>
-      <c r="I19" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1141,7 +1561,7 @@
         <v>3</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G20" t="s">
         <v>5</v>
@@ -1149,11 +1569,8 @@
       <c r="H20" t="s">
         <v>6</v>
       </c>
-      <c r="I20" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1170,19 +1587,16 @@
         <v>3</v>
       </c>
       <c r="F21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G21" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H21" t="s">
         <v>6</v>
       </c>
-      <c r="I21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1199,19 +1613,16 @@
         <v>3</v>
       </c>
       <c r="F22" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G22" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H22" t="s">
         <v>6</v>
       </c>
-      <c r="I22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1228,19 +1639,16 @@
         <v>3</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="H23" t="s">
         <v>6</v>
       </c>
-      <c r="I23" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1254,10 +1662,10 @@
         <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G24" t="s">
         <v>5</v>
@@ -1265,11 +1673,8 @@
       <c r="H24" t="s">
         <v>6</v>
       </c>
-      <c r="I24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1283,10 +1688,10 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G25" t="s">
         <v>5</v>
@@ -1294,13 +1699,4430 @@
       <c r="H25" t="s">
         <v>6</v>
       </c>
-      <c r="I25" t="s">
-        <v>7</v>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+      <c r="F26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G26" t="s">
+        <v>5</v>
+      </c>
+      <c r="H26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
+      </c>
+      <c r="F27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" t="s">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>31</v>
+      </c>
+      <c r="F29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>31</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>31</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" t="s">
+        <v>41</v>
+      </c>
+      <c r="G33" t="s">
+        <v>42</v>
+      </c>
+      <c r="H33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>45</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="G36" t="s">
+        <v>47</v>
+      </c>
+      <c r="H36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="G38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" t="s">
+        <v>52</v>
+      </c>
+      <c r="H39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>53</v>
+      </c>
+      <c r="G40" t="s">
+        <v>52</v>
+      </c>
+      <c r="H40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>54</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" t="s">
+        <v>56</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" t="s">
+        <v>58</v>
+      </c>
+      <c r="G42" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" t="s">
+        <v>47</v>
+      </c>
+      <c r="H43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>54</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" t="s">
+        <v>61</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="H44" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>54</v>
+      </c>
+      <c r="E45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" t="s">
+        <v>62</v>
+      </c>
+      <c r="G45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" t="s">
+        <v>64</v>
+      </c>
+      <c r="G46" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>54</v>
+      </c>
+      <c r="E47" t="s">
+        <v>65</v>
+      </c>
+      <c r="F47" t="s">
+        <v>56</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>65</v>
+      </c>
+      <c r="F48" t="s">
+        <v>58</v>
+      </c>
+      <c r="G48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" t="s">
+        <v>65</v>
+      </c>
+      <c r="F49" t="s">
+        <v>59</v>
+      </c>
+      <c r="G49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>54</v>
+      </c>
+      <c r="E50" t="s">
+        <v>65</v>
+      </c>
+      <c r="F50" t="s">
+        <v>61</v>
+      </c>
+      <c r="G50" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>0</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1</v>
+      </c>
+      <c r="D51" t="s">
+        <v>54</v>
+      </c>
+      <c r="E51" t="s">
+        <v>65</v>
+      </c>
+      <c r="F51" t="s">
+        <v>62</v>
+      </c>
+      <c r="G51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>0</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" t="s">
+        <v>65</v>
+      </c>
+      <c r="F52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G52" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" t="s">
+        <v>66</v>
+      </c>
+      <c r="F53" t="s">
+        <v>56</v>
+      </c>
+      <c r="G53" t="s">
+        <v>47</v>
+      </c>
+      <c r="H53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>0</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>54</v>
+      </c>
+      <c r="E54" t="s">
+        <v>66</v>
+      </c>
+      <c r="F54" t="s">
+        <v>58</v>
+      </c>
+      <c r="G54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>66</v>
+      </c>
+      <c r="F55" t="s">
+        <v>59</v>
+      </c>
+      <c r="G55" t="s">
+        <v>47</v>
+      </c>
+      <c r="H55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>54</v>
+      </c>
+      <c r="E56" t="s">
+        <v>66</v>
+      </c>
+      <c r="F56" t="s">
+        <v>61</v>
+      </c>
+      <c r="G56" t="s">
+        <v>47</v>
+      </c>
+      <c r="H56" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E57" t="s">
+        <v>66</v>
+      </c>
+      <c r="F57" t="s">
+        <v>62</v>
+      </c>
+      <c r="G57" t="s">
+        <v>47</v>
+      </c>
+      <c r="H57" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>0</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1</v>
+      </c>
+      <c r="D58" t="s">
+        <v>54</v>
+      </c>
+      <c r="E58" t="s">
+        <v>66</v>
+      </c>
+      <c r="F58" t="s">
+        <v>64</v>
+      </c>
+      <c r="G58" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>54</v>
+      </c>
+      <c r="E59" t="s">
+        <v>67</v>
+      </c>
+      <c r="F59" t="s">
+        <v>56</v>
+      </c>
+      <c r="G59" t="s">
+        <v>47</v>
+      </c>
+      <c r="H59" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1</v>
+      </c>
+      <c r="D60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" t="s">
+        <v>67</v>
+      </c>
+      <c r="F60" t="s">
+        <v>58</v>
+      </c>
+      <c r="G60" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>54</v>
+      </c>
+      <c r="E61" t="s">
+        <v>67</v>
+      </c>
+      <c r="F61" t="s">
+        <v>59</v>
+      </c>
+      <c r="G61" t="s">
+        <v>47</v>
+      </c>
+      <c r="H61" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+      <c r="F62" t="s">
+        <v>61</v>
+      </c>
+      <c r="G62" t="s">
+        <v>47</v>
+      </c>
+      <c r="H62" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>0</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>54</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+      <c r="F63" t="s">
+        <v>62</v>
+      </c>
+      <c r="G63" t="s">
+        <v>47</v>
+      </c>
+      <c r="H63" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" t="s">
+        <v>54</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+      <c r="F64" t="s">
+        <v>64</v>
+      </c>
+      <c r="G64" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>54</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" t="s">
+        <v>68</v>
+      </c>
+      <c r="G65" t="s">
+        <v>47</v>
+      </c>
+      <c r="H65" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>0</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1</v>
+      </c>
+      <c r="D66" t="s">
+        <v>54</v>
+      </c>
+      <c r="E66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" t="s">
+        <v>69</v>
+      </c>
+      <c r="G66" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>0</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1</v>
+      </c>
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" t="s">
+        <v>70</v>
+      </c>
+      <c r="G67" t="s">
+        <v>47</v>
+      </c>
+      <c r="H67" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>0</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>54</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" t="s">
+        <v>71</v>
+      </c>
+      <c r="G68" t="s">
+        <v>47</v>
+      </c>
+      <c r="H68" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>0</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" t="s">
+        <v>72</v>
+      </c>
+      <c r="G69" t="s">
+        <v>47</v>
+      </c>
+      <c r="H69" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>54</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" t="s">
+        <v>73</v>
+      </c>
+      <c r="G70" t="s">
+        <v>47</v>
+      </c>
+      <c r="H70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>0</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>54</v>
+      </c>
+      <c r="E71" t="s">
+        <v>66</v>
+      </c>
+      <c r="F71" t="s">
+        <v>69</v>
+      </c>
+      <c r="G71" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>0</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>54</v>
+      </c>
+      <c r="E72" t="s">
+        <v>66</v>
+      </c>
+      <c r="F72" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" t="s">
+        <v>47</v>
+      </c>
+      <c r="H72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1</v>
+      </c>
+      <c r="D73" t="s">
+        <v>54</v>
+      </c>
+      <c r="E73" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" t="s">
+        <v>71</v>
+      </c>
+      <c r="G73" t="s">
+        <v>47</v>
+      </c>
+      <c r="H73" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" t="s">
+        <v>66</v>
+      </c>
+      <c r="F74" t="s">
+        <v>72</v>
+      </c>
+      <c r="G74" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" t="s">
+        <v>66</v>
+      </c>
+      <c r="F75" t="s">
+        <v>73</v>
+      </c>
+      <c r="G75" t="s">
+        <v>47</v>
+      </c>
+      <c r="H75" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>0</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+      <c r="F76" t="s">
+        <v>68</v>
+      </c>
+      <c r="G76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H76" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>0</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" t="s">
+        <v>67</v>
+      </c>
+      <c r="F77" t="s">
+        <v>69</v>
+      </c>
+      <c r="G77" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>0</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" t="s">
+        <v>67</v>
+      </c>
+      <c r="F78" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" t="s">
+        <v>47</v>
+      </c>
+      <c r="H78" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>0</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>54</v>
+      </c>
+      <c r="E79" t="s">
+        <v>67</v>
+      </c>
+      <c r="F79" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" t="s">
+        <v>47</v>
+      </c>
+      <c r="H79" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>54</v>
+      </c>
+      <c r="E80" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" t="s">
+        <v>72</v>
+      </c>
+      <c r="G80" t="s">
+        <v>47</v>
+      </c>
+      <c r="H80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>0</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>54</v>
+      </c>
+      <c r="E81" t="s">
+        <v>67</v>
+      </c>
+      <c r="F81" t="s">
+        <v>73</v>
+      </c>
+      <c r="G81" t="s">
+        <v>47</v>
+      </c>
+      <c r="H81" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>0</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>54</v>
+      </c>
+      <c r="E82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" t="s">
+        <v>74</v>
+      </c>
+      <c r="G82" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>0</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>54</v>
+      </c>
+      <c r="E83" t="s">
+        <v>67</v>
+      </c>
+      <c r="F83" t="s">
+        <v>75</v>
+      </c>
+      <c r="G83" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>0</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>54</v>
+      </c>
+      <c r="E84" t="s">
+        <v>67</v>
+      </c>
+      <c r="F84" t="s">
+        <v>76</v>
+      </c>
+      <c r="G84" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" t="s">
+        <v>77</v>
+      </c>
+      <c r="G85" t="s">
+        <v>47</v>
+      </c>
+      <c r="H85" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>0</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>54</v>
+      </c>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" t="s">
+        <v>78</v>
+      </c>
+      <c r="G86" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>54</v>
+      </c>
+      <c r="E87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" t="s">
+        <v>79</v>
+      </c>
+      <c r="G87" t="s">
+        <v>47</v>
+      </c>
+      <c r="H87" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>0</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>54</v>
+      </c>
+      <c r="E88" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" t="s">
+        <v>47</v>
+      </c>
+      <c r="H88" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>0</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" t="s">
+        <v>81</v>
+      </c>
+      <c r="G89" t="s">
+        <v>47</v>
+      </c>
+      <c r="H89" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>54</v>
+      </c>
+      <c r="E90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" t="s">
+        <v>82</v>
+      </c>
+      <c r="G90" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>0</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>54</v>
+      </c>
+      <c r="E91" t="s">
+        <v>65</v>
+      </c>
+      <c r="F91" t="s">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>0</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>54</v>
+      </c>
+      <c r="E92" t="s">
+        <v>65</v>
+      </c>
+      <c r="F92" t="s">
+        <v>78</v>
+      </c>
+      <c r="G92" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>0</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1</v>
+      </c>
+      <c r="D93" t="s">
+        <v>54</v>
+      </c>
+      <c r="E93" t="s">
+        <v>65</v>
+      </c>
+      <c r="F93" t="s">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" t="s">
+        <v>0</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1</v>
+      </c>
+      <c r="D94" t="s">
+        <v>54</v>
+      </c>
+      <c r="E94" t="s">
+        <v>65</v>
+      </c>
+      <c r="F94" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1</v>
+      </c>
+      <c r="D95" t="s">
+        <v>54</v>
+      </c>
+      <c r="E95" t="s">
+        <v>65</v>
+      </c>
+      <c r="F95" t="s">
+        <v>81</v>
+      </c>
+      <c r="G95" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>0</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D96" t="s">
+        <v>54</v>
+      </c>
+      <c r="E96" t="s">
+        <v>65</v>
+      </c>
+      <c r="F96" t="s">
+        <v>82</v>
+      </c>
+      <c r="G96" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>96</v>
+      </c>
+      <c r="B97" t="s">
+        <v>0</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1</v>
+      </c>
+      <c r="D97" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" t="s">
+        <v>66</v>
+      </c>
+      <c r="F97" t="s">
+        <v>77</v>
+      </c>
+      <c r="G97" t="s">
+        <v>47</v>
+      </c>
+      <c r="H97" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>97</v>
+      </c>
+      <c r="B98" t="s">
+        <v>0</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>54</v>
+      </c>
+      <c r="E98" t="s">
+        <v>66</v>
+      </c>
+      <c r="F98" t="s">
+        <v>78</v>
+      </c>
+      <c r="G98" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99">
+        <v>98</v>
+      </c>
+      <c r="B99" t="s">
+        <v>0</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>54</v>
+      </c>
+      <c r="E99" t="s">
+        <v>66</v>
+      </c>
+      <c r="F99" t="s">
+        <v>79</v>
+      </c>
+      <c r="G99" t="s">
+        <v>47</v>
+      </c>
+      <c r="H99" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100">
+        <v>99</v>
+      </c>
+      <c r="B100" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>54</v>
+      </c>
+      <c r="E100" t="s">
+        <v>66</v>
+      </c>
+      <c r="F100" t="s">
+        <v>80</v>
+      </c>
+      <c r="G100" t="s">
+        <v>47</v>
+      </c>
+      <c r="H100" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>100</v>
+      </c>
+      <c r="B101" t="s">
+        <v>0</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>54</v>
+      </c>
+      <c r="E101" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" t="s">
+        <v>81</v>
+      </c>
+      <c r="G101" t="s">
+        <v>47</v>
+      </c>
+      <c r="H101" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>101</v>
+      </c>
+      <c r="B102" t="s">
+        <v>0</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" t="s">
+        <v>54</v>
+      </c>
+      <c r="E102" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" t="s">
+        <v>82</v>
+      </c>
+      <c r="G102" t="s">
+        <v>47</v>
+      </c>
+      <c r="H102" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>102</v>
+      </c>
+      <c r="B103" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" t="s">
+        <v>54</v>
+      </c>
+      <c r="E103" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" t="s">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s">
+        <v>47</v>
+      </c>
+      <c r="H103" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>0</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>54</v>
+      </c>
+      <c r="E104" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" t="s">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>104</v>
+      </c>
+      <c r="B105" t="s">
+        <v>0</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>54</v>
+      </c>
+      <c r="E105" t="s">
+        <v>67</v>
+      </c>
+      <c r="F105" t="s">
+        <v>79</v>
+      </c>
+      <c r="G105" t="s">
+        <v>47</v>
+      </c>
+      <c r="H105" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>105</v>
+      </c>
+      <c r="B106" t="s">
+        <v>0</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1</v>
+      </c>
+      <c r="D106" t="s">
+        <v>54</v>
+      </c>
+      <c r="E106" t="s">
+        <v>67</v>
+      </c>
+      <c r="F106" t="s">
+        <v>80</v>
+      </c>
+      <c r="G106" t="s">
+        <v>47</v>
+      </c>
+      <c r="H106" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>106</v>
+      </c>
+      <c r="B107" t="s">
+        <v>0</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1</v>
+      </c>
+      <c r="D107" t="s">
+        <v>54</v>
+      </c>
+      <c r="E107" t="s">
+        <v>67</v>
+      </c>
+      <c r="F107" t="s">
+        <v>81</v>
+      </c>
+      <c r="G107" t="s">
+        <v>47</v>
+      </c>
+      <c r="H107" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>107</v>
+      </c>
+      <c r="B108" t="s">
+        <v>0</v>
+      </c>
+      <c r="C108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D108" t="s">
+        <v>54</v>
+      </c>
+      <c r="E108" t="s">
+        <v>67</v>
+      </c>
+      <c r="F108" t="s">
+        <v>82</v>
+      </c>
+      <c r="G108" t="s">
+        <v>47</v>
+      </c>
+      <c r="H108" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>108</v>
+      </c>
+      <c r="B109" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>54</v>
+      </c>
+      <c r="E109" t="s">
+        <v>83</v>
+      </c>
+      <c r="G109" t="s">
+        <v>47</v>
+      </c>
+      <c r="H109" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110" t="s">
+        <v>0</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>54</v>
+      </c>
+      <c r="E110" t="s">
+        <v>85</v>
+      </c>
+      <c r="G110" t="s">
+        <v>52</v>
+      </c>
+      <c r="H110" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>54</v>
+      </c>
+      <c r="E111" t="s">
+        <v>87</v>
+      </c>
+      <c r="G111" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112" t="s">
+        <v>0</v>
+      </c>
+      <c r="C112" t="s">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>54</v>
+      </c>
+      <c r="E112" t="s">
+        <v>88</v>
+      </c>
+      <c r="G112" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113" t="s">
+        <v>0</v>
+      </c>
+      <c r="C113" t="s">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>54</v>
+      </c>
+      <c r="E113" t="s">
+        <v>90</v>
+      </c>
+      <c r="G113" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114" t="s">
+        <v>0</v>
+      </c>
+      <c r="C114" t="s">
+        <v>1</v>
+      </c>
+      <c r="D114" t="s">
+        <v>54</v>
+      </c>
+      <c r="E114" t="s">
+        <v>91</v>
+      </c>
+      <c r="F114" t="s">
+        <v>92</v>
+      </c>
+      <c r="G114" t="s">
+        <v>47</v>
+      </c>
+      <c r="H114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>114</v>
+      </c>
+      <c r="B115" t="s">
+        <v>0</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>54</v>
+      </c>
+      <c r="E115" t="s">
+        <v>93</v>
+      </c>
+      <c r="G115" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>115</v>
+      </c>
+      <c r="B116" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>54</v>
+      </c>
+      <c r="E116" t="s">
+        <v>94</v>
+      </c>
+      <c r="G116" t="s">
+        <v>89</v>
+      </c>
+      <c r="H116" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>116</v>
+      </c>
+      <c r="B117" t="s">
+        <v>0</v>
+      </c>
+      <c r="C117" t="s">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>54</v>
+      </c>
+      <c r="E117" t="s">
+        <v>96</v>
+      </c>
+      <c r="G117" t="s">
+        <v>89</v>
+      </c>
+      <c r="H117" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>117</v>
+      </c>
+      <c r="B118" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" t="s">
+        <v>54</v>
+      </c>
+      <c r="E118" t="s">
+        <v>97</v>
+      </c>
+      <c r="G118" t="s">
+        <v>89</v>
+      </c>
+      <c r="H118" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>118</v>
+      </c>
+      <c r="B119" t="s">
+        <v>0</v>
+      </c>
+      <c r="C119" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>54</v>
+      </c>
+      <c r="E119" t="s">
+        <v>98</v>
+      </c>
+      <c r="F119" t="s">
+        <v>99</v>
+      </c>
+      <c r="G119" t="s">
+        <v>47</v>
+      </c>
+      <c r="H119" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>119</v>
+      </c>
+      <c r="B120" t="s">
+        <v>0</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>54</v>
+      </c>
+      <c r="E120" t="s">
+        <v>98</v>
+      </c>
+      <c r="F120" t="s">
+        <v>100</v>
+      </c>
+      <c r="G120" t="s">
+        <v>47</v>
+      </c>
+      <c r="H120" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>120</v>
+      </c>
+      <c r="B121" t="s">
+        <v>0</v>
+      </c>
+      <c r="C121" t="s">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>54</v>
+      </c>
+      <c r="E121" t="s">
+        <v>98</v>
+      </c>
+      <c r="F121" t="s">
+        <v>101</v>
+      </c>
+      <c r="G121" t="s">
+        <v>47</v>
+      </c>
+      <c r="H121" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122" t="s">
+        <v>0</v>
+      </c>
+      <c r="C122" t="s">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>54</v>
+      </c>
+      <c r="E122" t="s">
+        <v>98</v>
+      </c>
+      <c r="F122" t="s">
+        <v>102</v>
+      </c>
+      <c r="G122" t="s">
+        <v>47</v>
+      </c>
+      <c r="H122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123" t="s">
+        <v>0</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>54</v>
+      </c>
+      <c r="E123" t="s">
+        <v>98</v>
+      </c>
+      <c r="F123" t="s">
+        <v>103</v>
+      </c>
+      <c r="G123" t="s">
+        <v>47</v>
+      </c>
+      <c r="H123" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124" t="s">
+        <v>0</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" t="s">
+        <v>98</v>
+      </c>
+      <c r="F124" t="s">
+        <v>104</v>
+      </c>
+      <c r="G124" t="s">
+        <v>47</v>
+      </c>
+      <c r="H124" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125" t="s">
+        <v>0</v>
+      </c>
+      <c r="C125" t="s">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>54</v>
+      </c>
+      <c r="E125" t="s">
+        <v>98</v>
+      </c>
+      <c r="F125" t="s">
+        <v>105</v>
+      </c>
+      <c r="G125" t="s">
+        <v>47</v>
+      </c>
+      <c r="H125" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>54</v>
+      </c>
+      <c r="E126" t="s">
+        <v>98</v>
+      </c>
+      <c r="F126" t="s">
+        <v>106</v>
+      </c>
+      <c r="G126" t="s">
+        <v>47</v>
+      </c>
+      <c r="H126" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127" t="s">
+        <v>0</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>54</v>
+      </c>
+      <c r="E127" t="s">
+        <v>107</v>
+      </c>
+      <c r="F127" t="s">
+        <v>108</v>
+      </c>
+      <c r="G127" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128" t="s">
+        <v>0</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>54</v>
+      </c>
+      <c r="E128" t="s">
+        <v>107</v>
+      </c>
+      <c r="F128" t="s">
+        <v>109</v>
+      </c>
+      <c r="G128" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129" t="s">
+        <v>0</v>
+      </c>
+      <c r="C129" t="s">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>54</v>
+      </c>
+      <c r="E129" t="s">
+        <v>107</v>
+      </c>
+      <c r="F129" t="s">
+        <v>110</v>
+      </c>
+      <c r="G129" t="s">
+        <v>5</v>
+      </c>
+      <c r="H129" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>0</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1</v>
+      </c>
+      <c r="D130" t="s">
+        <v>54</v>
+      </c>
+      <c r="E130" t="s">
+        <v>107</v>
+      </c>
+      <c r="F130" t="s">
+        <v>112</v>
+      </c>
+      <c r="G130" t="s">
+        <v>5</v>
+      </c>
+      <c r="H130" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1</v>
+      </c>
+      <c r="D131" t="s">
+        <v>54</v>
+      </c>
+      <c r="E131" t="s">
+        <v>107</v>
+      </c>
+      <c r="F131" t="s">
+        <v>113</v>
+      </c>
+      <c r="G131" t="s">
+        <v>5</v>
+      </c>
+      <c r="H131" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>0</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1</v>
+      </c>
+      <c r="D132" t="s">
+        <v>54</v>
+      </c>
+      <c r="E132" t="s">
+        <v>107</v>
+      </c>
+      <c r="F132" t="s">
+        <v>114</v>
+      </c>
+      <c r="G132" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>0</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>54</v>
+      </c>
+      <c r="E133" t="s">
+        <v>107</v>
+      </c>
+      <c r="F133" t="s">
+        <v>115</v>
+      </c>
+      <c r="G133" t="s">
+        <v>5</v>
+      </c>
+      <c r="H133" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>0</v>
+      </c>
+      <c r="C134" t="s">
+        <v>1</v>
+      </c>
+      <c r="D134" t="s">
+        <v>54</v>
+      </c>
+      <c r="E134" t="s">
+        <v>107</v>
+      </c>
+      <c r="F134" t="s">
+        <v>116</v>
+      </c>
+      <c r="G134" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>0</v>
+      </c>
+      <c r="C135" t="s">
+        <v>1</v>
+      </c>
+      <c r="D135" t="s">
+        <v>54</v>
+      </c>
+      <c r="E135" t="s">
+        <v>107</v>
+      </c>
+      <c r="F135" t="s">
+        <v>117</v>
+      </c>
+      <c r="G135" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>0</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1</v>
+      </c>
+      <c r="D136" t="s">
+        <v>54</v>
+      </c>
+      <c r="E136" t="s">
+        <v>107</v>
+      </c>
+      <c r="F136" t="s">
+        <v>118</v>
+      </c>
+      <c r="G136" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>0</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>54</v>
+      </c>
+      <c r="E137" t="s">
+        <v>107</v>
+      </c>
+      <c r="F137" t="s">
+        <v>119</v>
+      </c>
+      <c r="G137" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>0</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1</v>
+      </c>
+      <c r="D138" t="s">
+        <v>54</v>
+      </c>
+      <c r="E138" t="s">
+        <v>107</v>
+      </c>
+      <c r="F138" t="s">
+        <v>120</v>
+      </c>
+      <c r="G138" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>0</v>
+      </c>
+      <c r="C139" t="s">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>54</v>
+      </c>
+      <c r="E139" t="s">
+        <v>121</v>
+      </c>
+      <c r="F139" t="s">
+        <v>122</v>
+      </c>
+      <c r="G139" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>0</v>
+      </c>
+      <c r="C140" t="s">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>54</v>
+      </c>
+      <c r="E140" t="s">
+        <v>121</v>
+      </c>
+      <c r="F140" t="s">
+        <v>123</v>
+      </c>
+      <c r="G140" t="s">
+        <v>89</v>
+      </c>
+      <c r="H140" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>0</v>
+      </c>
+      <c r="C141" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>54</v>
+      </c>
+      <c r="E141" t="s">
+        <v>121</v>
+      </c>
+      <c r="F141" t="s">
+        <v>125</v>
+      </c>
+      <c r="G141" t="s">
+        <v>89</v>
+      </c>
+      <c r="H141" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>0</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1</v>
+      </c>
+      <c r="D142" t="s">
+        <v>54</v>
+      </c>
+      <c r="E142" t="s">
+        <v>121</v>
+      </c>
+      <c r="F142" t="s">
+        <v>126</v>
+      </c>
+      <c r="G142" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>0</v>
+      </c>
+      <c r="C143" t="s">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>54</v>
+      </c>
+      <c r="E143" t="s">
+        <v>121</v>
+      </c>
+      <c r="F143" t="s">
+        <v>127</v>
+      </c>
+      <c r="G143" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" t="s">
+        <v>1</v>
+      </c>
+      <c r="D144" t="s">
+        <v>54</v>
+      </c>
+      <c r="E144" t="s">
+        <v>121</v>
+      </c>
+      <c r="F144" t="s">
+        <v>128</v>
+      </c>
+      <c r="G144" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>0</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1</v>
+      </c>
+      <c r="D145" t="s">
+        <v>54</v>
+      </c>
+      <c r="E145" t="s">
+        <v>129</v>
+      </c>
+      <c r="F145" t="s">
+        <v>130</v>
+      </c>
+      <c r="G145" t="s">
+        <v>47</v>
+      </c>
+      <c r="H145" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>0</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1</v>
+      </c>
+      <c r="D146" t="s">
+        <v>54</v>
+      </c>
+      <c r="E146" t="s">
+        <v>131</v>
+      </c>
+      <c r="F146" t="s">
+        <v>132</v>
+      </c>
+      <c r="G146" t="s">
+        <v>52</v>
+      </c>
+      <c r="H146" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>0</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>54</v>
+      </c>
+      <c r="E147" t="s">
+        <v>133</v>
+      </c>
+      <c r="F147" t="s">
+        <v>134</v>
+      </c>
+      <c r="G147" t="s">
+        <v>89</v>
+      </c>
+      <c r="H147" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>0</v>
+      </c>
+      <c r="C148" t="s">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>54</v>
+      </c>
+      <c r="E148" t="s">
+        <v>135</v>
+      </c>
+      <c r="G148" t="s">
+        <v>52</v>
+      </c>
+      <c r="H148" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>0</v>
+      </c>
+      <c r="C149" t="s">
+        <v>1</v>
+      </c>
+      <c r="D149" t="s">
+        <v>54</v>
+      </c>
+      <c r="E149" t="s">
+        <v>136</v>
+      </c>
+      <c r="F149" t="s">
+        <v>137</v>
+      </c>
+      <c r="G149" t="s">
+        <v>47</v>
+      </c>
+      <c r="H149" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>0</v>
+      </c>
+      <c r="C150" t="s">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>54</v>
+      </c>
+      <c r="E150" t="s">
+        <v>138</v>
+      </c>
+      <c r="G150" t="s">
+        <v>52</v>
+      </c>
+      <c r="H150" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>0</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1</v>
+      </c>
+      <c r="D151" t="s">
+        <v>54</v>
+      </c>
+      <c r="E151" t="s">
+        <v>139</v>
+      </c>
+      <c r="F151" t="s">
+        <v>140</v>
+      </c>
+      <c r="G151" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>0</v>
+      </c>
+      <c r="C152" t="s">
+        <v>1</v>
+      </c>
+      <c r="D152" t="s">
+        <v>54</v>
+      </c>
+      <c r="E152" t="s">
+        <v>139</v>
+      </c>
+      <c r="F152" t="s">
+        <v>141</v>
+      </c>
+      <c r="G152" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>0</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1</v>
+      </c>
+      <c r="D153" t="s">
+        <v>54</v>
+      </c>
+      <c r="E153" t="s">
+        <v>139</v>
+      </c>
+      <c r="F153" t="s">
+        <v>142</v>
+      </c>
+      <c r="G153" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>0</v>
+      </c>
+      <c r="C154" t="s">
+        <v>1</v>
+      </c>
+      <c r="D154" t="s">
+        <v>54</v>
+      </c>
+      <c r="E154" t="s">
+        <v>139</v>
+      </c>
+      <c r="F154" t="s">
+        <v>143</v>
+      </c>
+      <c r="G154" t="s">
+        <v>42</v>
+      </c>
+      <c r="H154" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>0</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>54</v>
+      </c>
+      <c r="E155" t="s">
+        <v>139</v>
+      </c>
+      <c r="F155" t="s">
+        <v>144</v>
+      </c>
+      <c r="G155" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>0</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>54</v>
+      </c>
+      <c r="E156" t="s">
+        <v>139</v>
+      </c>
+      <c r="F156" t="s">
+        <v>145</v>
+      </c>
+      <c r="G156" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>0</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1</v>
+      </c>
+      <c r="D157" t="s">
+        <v>54</v>
+      </c>
+      <c r="E157" t="s">
+        <v>139</v>
+      </c>
+      <c r="F157" t="s">
+        <v>146</v>
+      </c>
+      <c r="G157" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>0</v>
+      </c>
+      <c r="C158" t="s">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>54</v>
+      </c>
+      <c r="E158" t="s">
+        <v>139</v>
+      </c>
+      <c r="F158" t="s">
+        <v>147</v>
+      </c>
+      <c r="G158" t="s">
+        <v>42</v>
+      </c>
+      <c r="H158" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>0</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1</v>
+      </c>
+      <c r="D159" t="s">
+        <v>54</v>
+      </c>
+      <c r="E159" t="s">
+        <v>148</v>
+      </c>
+      <c r="F159" t="s">
+        <v>149</v>
+      </c>
+      <c r="G159" t="s">
+        <v>42</v>
+      </c>
+      <c r="H159" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>0</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1</v>
+      </c>
+      <c r="D160" t="s">
+        <v>54</v>
+      </c>
+      <c r="E160" t="s">
+        <v>148</v>
+      </c>
+      <c r="F160" t="s">
+        <v>150</v>
+      </c>
+      <c r="G160" t="s">
+        <v>42</v>
+      </c>
+      <c r="H160" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>0</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1</v>
+      </c>
+      <c r="D161" t="s">
+        <v>54</v>
+      </c>
+      <c r="E161" t="s">
+        <v>148</v>
+      </c>
+      <c r="F161" t="s">
+        <v>151</v>
+      </c>
+      <c r="G161" t="s">
+        <v>42</v>
+      </c>
+      <c r="H161" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>0</v>
+      </c>
+      <c r="C162" t="s">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>54</v>
+      </c>
+      <c r="E162" t="s">
+        <v>148</v>
+      </c>
+      <c r="F162" t="s">
+        <v>152</v>
+      </c>
+      <c r="G162" t="s">
+        <v>42</v>
+      </c>
+      <c r="H162" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>0</v>
+      </c>
+      <c r="C163" t="s">
+        <v>1</v>
+      </c>
+      <c r="D163" t="s">
+        <v>54</v>
+      </c>
+      <c r="E163" t="s">
+        <v>148</v>
+      </c>
+      <c r="F163" t="s">
+        <v>153</v>
+      </c>
+      <c r="G163" t="s">
+        <v>42</v>
+      </c>
+      <c r="H163" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>0</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>54</v>
+      </c>
+      <c r="E164" t="s">
+        <v>148</v>
+      </c>
+      <c r="F164" t="s">
+        <v>154</v>
+      </c>
+      <c r="G164" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>0</v>
+      </c>
+      <c r="C165" t="s">
+        <v>1</v>
+      </c>
+      <c r="D165" t="s">
+        <v>54</v>
+      </c>
+      <c r="E165" t="s">
+        <v>155</v>
+      </c>
+      <c r="F165" t="s">
+        <v>156</v>
+      </c>
+      <c r="G165" t="s">
+        <v>5</v>
+      </c>
+      <c r="H165" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>0</v>
+      </c>
+      <c r="C166" t="s">
+        <v>1</v>
+      </c>
+      <c r="D166" t="s">
+        <v>54</v>
+      </c>
+      <c r="E166" t="s">
+        <v>157</v>
+      </c>
+      <c r="F166" t="s">
+        <v>158</v>
+      </c>
+      <c r="G166" t="s">
+        <v>42</v>
+      </c>
+      <c r="H166" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>0</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1</v>
+      </c>
+      <c r="D167" t="s">
+        <v>54</v>
+      </c>
+      <c r="E167" t="s">
+        <v>159</v>
+      </c>
+      <c r="F167" t="s">
+        <v>160</v>
+      </c>
+      <c r="G167" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>0</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1</v>
+      </c>
+      <c r="D168" t="s">
+        <v>54</v>
+      </c>
+      <c r="E168" t="s">
+        <v>161</v>
+      </c>
+      <c r="F168" t="s">
+        <v>162</v>
+      </c>
+      <c r="G168" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>168</v>
+      </c>
+      <c r="B169" t="s">
+        <v>0</v>
+      </c>
+      <c r="C169" t="s">
+        <v>1</v>
+      </c>
+      <c r="D169" t="s">
+        <v>163</v>
+      </c>
+      <c r="E169" t="s">
+        <v>164</v>
+      </c>
+      <c r="F169" t="s">
+        <v>165</v>
+      </c>
+      <c r="G169" t="s">
+        <v>42</v>
+      </c>
+      <c r="H169" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>169</v>
+      </c>
+      <c r="B170" t="s">
+        <v>0</v>
+      </c>
+      <c r="C170" t="s">
+        <v>1</v>
+      </c>
+      <c r="D170" t="s">
+        <v>163</v>
+      </c>
+      <c r="E170" t="s">
+        <v>164</v>
+      </c>
+      <c r="F170" t="s">
+        <v>166</v>
+      </c>
+      <c r="G170" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>170</v>
+      </c>
+      <c r="B171" t="s">
+        <v>0</v>
+      </c>
+      <c r="C171" t="s">
+        <v>1</v>
+      </c>
+      <c r="D171" t="s">
+        <v>163</v>
+      </c>
+      <c r="E171" t="s">
+        <v>164</v>
+      </c>
+      <c r="F171" t="s">
+        <v>167</v>
+      </c>
+      <c r="G171" t="s">
+        <v>42</v>
+      </c>
+      <c r="H171" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>171</v>
+      </c>
+      <c r="B172" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>163</v>
+      </c>
+      <c r="E172" t="s">
+        <v>164</v>
+      </c>
+      <c r="F172" t="s">
+        <v>168</v>
+      </c>
+      <c r="G172" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>172</v>
+      </c>
+      <c r="B173" t="s">
+        <v>0</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1</v>
+      </c>
+      <c r="D173" t="s">
+        <v>163</v>
+      </c>
+      <c r="E173" t="s">
+        <v>164</v>
+      </c>
+      <c r="F173" t="s">
+        <v>169</v>
+      </c>
+      <c r="G173" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>173</v>
+      </c>
+      <c r="B174" t="s">
+        <v>0</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1</v>
+      </c>
+      <c r="D174" t="s">
+        <v>163</v>
+      </c>
+      <c r="E174" t="s">
+        <v>164</v>
+      </c>
+      <c r="F174" t="s">
+        <v>170</v>
+      </c>
+      <c r="G174" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>174</v>
+      </c>
+      <c r="B175" t="s">
+        <v>0</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1</v>
+      </c>
+      <c r="D175" t="s">
+        <v>163</v>
+      </c>
+      <c r="E175" t="s">
+        <v>164</v>
+      </c>
+      <c r="F175" t="s">
+        <v>171</v>
+      </c>
+      <c r="G175" t="s">
+        <v>42</v>
+      </c>
+      <c r="H175" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>175</v>
+      </c>
+      <c r="B176" t="s">
+        <v>0</v>
+      </c>
+      <c r="C176" t="s">
+        <v>1</v>
+      </c>
+      <c r="D176" t="s">
+        <v>163</v>
+      </c>
+      <c r="E176" t="s">
+        <v>164</v>
+      </c>
+      <c r="F176" t="s">
+        <v>172</v>
+      </c>
+      <c r="G176" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>176</v>
+      </c>
+      <c r="B177" t="s">
+        <v>0</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>163</v>
+      </c>
+      <c r="E177" t="s">
+        <v>164</v>
+      </c>
+      <c r="F177" t="s">
+        <v>173</v>
+      </c>
+      <c r="G177" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>177</v>
+      </c>
+      <c r="B178" t="s">
+        <v>0</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1</v>
+      </c>
+      <c r="D178" t="s">
+        <v>163</v>
+      </c>
+      <c r="E178" t="s">
+        <v>164</v>
+      </c>
+      <c r="F178" t="s">
+        <v>174</v>
+      </c>
+      <c r="G178" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>178</v>
+      </c>
+      <c r="B179" t="s">
+        <v>0</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1</v>
+      </c>
+      <c r="D179" t="s">
+        <v>163</v>
+      </c>
+      <c r="E179" t="s">
+        <v>164</v>
+      </c>
+      <c r="F179" t="s">
+        <v>175</v>
+      </c>
+      <c r="G179" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>179</v>
+      </c>
+      <c r="B180" t="s">
+        <v>0</v>
+      </c>
+      <c r="C180" t="s">
+        <v>1</v>
+      </c>
+      <c r="D180" t="s">
+        <v>163</v>
+      </c>
+      <c r="E180" t="s">
+        <v>164</v>
+      </c>
+      <c r="F180" t="s">
+        <v>176</v>
+      </c>
+      <c r="G180" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>180</v>
+      </c>
+      <c r="B181" t="s">
+        <v>0</v>
+      </c>
+      <c r="C181" t="s">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>163</v>
+      </c>
+      <c r="E181" t="s">
+        <v>83</v>
+      </c>
+      <c r="G181" t="s">
+        <v>47</v>
+      </c>
+      <c r="H181" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>181</v>
+      </c>
+      <c r="B182" t="s">
+        <v>0</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" t="s">
+        <v>163</v>
+      </c>
+      <c r="E182" t="s">
+        <v>85</v>
+      </c>
+      <c r="G182" t="s">
+        <v>52</v>
+      </c>
+      <c r="H182" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>182</v>
+      </c>
+      <c r="B183" t="s">
+        <v>0</v>
+      </c>
+      <c r="C183" t="s">
+        <v>1</v>
+      </c>
+      <c r="D183" t="s">
+        <v>163</v>
+      </c>
+      <c r="E183" t="s">
+        <v>177</v>
+      </c>
+      <c r="G183" t="s">
+        <v>47</v>
+      </c>
+      <c r="H183" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>183</v>
+      </c>
+      <c r="B184" t="s">
+        <v>0</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>163</v>
+      </c>
+      <c r="E184" t="s">
+        <v>179</v>
+      </c>
+      <c r="G184" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>184</v>
+      </c>
+      <c r="B185" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185" t="s">
+        <v>163</v>
+      </c>
+      <c r="E185" t="s">
+        <v>180</v>
+      </c>
+      <c r="G185" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>185</v>
+      </c>
+      <c r="B186" t="s">
+        <v>0</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1</v>
+      </c>
+      <c r="D186" t="s">
+        <v>163</v>
+      </c>
+      <c r="E186" t="s">
+        <v>94</v>
+      </c>
+      <c r="G186" t="s">
+        <v>89</v>
+      </c>
+      <c r="H186" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>186</v>
+      </c>
+      <c r="B187" t="s">
+        <v>0</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1</v>
+      </c>
+      <c r="D187" t="s">
+        <v>163</v>
+      </c>
+      <c r="E187" t="s">
+        <v>96</v>
+      </c>
+      <c r="G187" t="s">
+        <v>89</v>
+      </c>
+      <c r="H187" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>187</v>
+      </c>
+      <c r="B188" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1</v>
+      </c>
+      <c r="D188" t="s">
+        <v>163</v>
+      </c>
+      <c r="E188" t="s">
+        <v>181</v>
+      </c>
+      <c r="G188" t="s">
+        <v>89</v>
+      </c>
+      <c r="H188" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>188</v>
+      </c>
+      <c r="B189" t="s">
+        <v>0</v>
+      </c>
+      <c r="C189" t="s">
+        <v>1</v>
+      </c>
+      <c r="D189" t="s">
+        <v>163</v>
+      </c>
+      <c r="E189" t="s">
+        <v>182</v>
+      </c>
+      <c r="G189" t="s">
+        <v>89</v>
+      </c>
+      <c r="H189" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>189</v>
+      </c>
+      <c r="B190" t="s">
+        <v>0</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>163</v>
+      </c>
+      <c r="E190" t="s">
+        <v>97</v>
+      </c>
+      <c r="G190" t="s">
+        <v>89</v>
+      </c>
+      <c r="H190" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>190</v>
+      </c>
+      <c r="B191" t="s">
+        <v>0</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1</v>
+      </c>
+      <c r="D191" t="s">
+        <v>163</v>
+      </c>
+      <c r="E191" t="s">
+        <v>107</v>
+      </c>
+      <c r="F191" t="s">
+        <v>108</v>
+      </c>
+      <c r="G191" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>191</v>
+      </c>
+      <c r="B192" t="s">
+        <v>0</v>
+      </c>
+      <c r="C192" t="s">
+        <v>1</v>
+      </c>
+      <c r="D192" t="s">
+        <v>163</v>
+      </c>
+      <c r="E192" t="s">
+        <v>107</v>
+      </c>
+      <c r="F192" t="s">
+        <v>109</v>
+      </c>
+      <c r="G192" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>192</v>
+      </c>
+      <c r="B193" t="s">
+        <v>0</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1</v>
+      </c>
+      <c r="D193" t="s">
+        <v>163</v>
+      </c>
+      <c r="E193" t="s">
+        <v>107</v>
+      </c>
+      <c r="F193" t="s">
+        <v>183</v>
+      </c>
+      <c r="G193" t="s">
+        <v>5</v>
+      </c>
+      <c r="H193" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>193</v>
+      </c>
+      <c r="B194" t="s">
+        <v>0</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1</v>
+      </c>
+      <c r="D194" t="s">
+        <v>163</v>
+      </c>
+      <c r="E194" t="s">
+        <v>121</v>
+      </c>
+      <c r="F194" t="s">
+        <v>123</v>
+      </c>
+      <c r="G194" t="s">
+        <v>89</v>
+      </c>
+      <c r="H194" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>194</v>
+      </c>
+      <c r="B195" t="s">
+        <v>0</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>163</v>
+      </c>
+      <c r="E195" t="s">
+        <v>121</v>
+      </c>
+      <c r="F195" t="s">
+        <v>125</v>
+      </c>
+      <c r="G195" t="s">
+        <v>89</v>
+      </c>
+      <c r="H195" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>195</v>
+      </c>
+      <c r="B196" t="s">
+        <v>0</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1</v>
+      </c>
+      <c r="D196" t="s">
+        <v>163</v>
+      </c>
+      <c r="E196" t="s">
+        <v>184</v>
+      </c>
+      <c r="F196" t="s">
+        <v>185</v>
+      </c>
+      <c r="G196" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>196</v>
+      </c>
+      <c r="B197" t="s">
+        <v>0</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1</v>
+      </c>
+      <c r="D197" t="s">
+        <v>163</v>
+      </c>
+      <c r="E197" t="s">
+        <v>184</v>
+      </c>
+      <c r="F197" t="s">
+        <v>186</v>
+      </c>
+      <c r="G197" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>197</v>
+      </c>
+      <c r="B198" t="s">
+        <v>0</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198" t="s">
+        <v>188</v>
+      </c>
+      <c r="E198" t="s">
+        <v>189</v>
+      </c>
+      <c r="F198" t="s">
+        <v>190</v>
+      </c>
+      <c r="G198" t="s">
+        <v>47</v>
+      </c>
+      <c r="H198" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>0</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1</v>
+      </c>
+      <c r="D199" t="s">
+        <v>188</v>
+      </c>
+      <c r="E199" t="s">
+        <v>189</v>
+      </c>
+      <c r="F199" t="s">
+        <v>191</v>
+      </c>
+      <c r="G199" t="s">
+        <v>47</v>
+      </c>
+      <c r="H199" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>0</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>188</v>
+      </c>
+      <c r="E200" t="s">
+        <v>189</v>
+      </c>
+      <c r="F200" t="s">
+        <v>192</v>
+      </c>
+      <c r="G200" t="s">
+        <v>47</v>
+      </c>
+      <c r="H200" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>188</v>
+      </c>
+      <c r="E201" t="s">
+        <v>193</v>
+      </c>
+      <c r="F201" t="s">
+        <v>194</v>
+      </c>
+      <c r="G201" t="s">
+        <v>42</v>
+      </c>
+      <c r="H201" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>0</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>188</v>
+      </c>
+      <c r="E202" t="s">
+        <v>193</v>
+      </c>
+      <c r="F202" t="s">
+        <v>32</v>
+      </c>
+      <c r="G202" t="s">
+        <v>42</v>
+      </c>
+      <c r="H202" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>0</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1</v>
+      </c>
+      <c r="D203" t="s">
+        <v>188</v>
+      </c>
+      <c r="E203" t="s">
+        <v>193</v>
+      </c>
+      <c r="F203" t="s">
+        <v>34</v>
+      </c>
+      <c r="G203" t="s">
+        <v>42</v>
+      </c>
+      <c r="H203" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>0</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>188</v>
+      </c>
+      <c r="E204" t="s">
+        <v>193</v>
+      </c>
+      <c r="F204" t="s">
+        <v>35</v>
+      </c>
+      <c r="G204" t="s">
+        <v>42</v>
+      </c>
+      <c r="H204" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>0</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1</v>
+      </c>
+      <c r="D205" t="s">
+        <v>188</v>
+      </c>
+      <c r="E205" t="s">
+        <v>193</v>
+      </c>
+      <c r="F205" t="s">
+        <v>36</v>
+      </c>
+      <c r="G205" t="s">
+        <v>42</v>
+      </c>
+      <c r="H205" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>205</v>
+      </c>
+      <c r="B206" t="s">
+        <v>0</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>188</v>
+      </c>
+      <c r="E206" t="s">
+        <v>193</v>
+      </c>
+      <c r="F206" t="s">
+        <v>37</v>
+      </c>
+      <c r="G206" t="s">
+        <v>42</v>
+      </c>
+      <c r="H206" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>